--- a/Database Notebook/xlsx/Reporte diario pdf/ReporteDiario2020-06-28.xlsx
+++ b/Database Notebook/xlsx/Reporte diario pdf/ReporteDiario2020-06-28.xlsx
@@ -415,7 +415,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.649</v>
+        <v>1649</v>
       </c>
       <c r="C2" t="n">
         <v>38</v>
@@ -443,7 +443,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.893</v>
+        <v>5893</v>
       </c>
       <c r="C3" t="n">
         <v>122</v>
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.308</v>
+        <v>8308</v>
       </c>
       <c r="C4" t="n">
         <v>281</v>
@@ -489,7 +489,7 @@
         <v>147</v>
       </c>
       <c r="H4" t="n">
-        <v>1.692</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="5">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.857</v>
+        <v>2857</v>
       </c>
       <c r="C6" t="n">
         <v>76</v>
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.307</v>
+        <v>11307</v>
       </c>
       <c r="C7" t="n">
         <v>253</v>
@@ -573,7 +573,7 @@
         <v>229</v>
       </c>
       <c r="H7" t="n">
-        <v>2.093</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="8">
@@ -583,13 +583,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>214.388</v>
+        <v>214388</v>
       </c>
       <c r="C8" t="n">
-        <v>2.569</v>
+        <v>2569</v>
       </c>
       <c r="D8" t="n">
-        <v>2.048</v>
+        <v>2048</v>
       </c>
       <c r="E8" t="n">
         <v>193</v>
@@ -598,10 +598,10 @@
         <v>328</v>
       </c>
       <c r="G8" t="n">
-        <v>4.711</v>
+        <v>4711</v>
       </c>
       <c r="H8" t="n">
-        <v>21.667</v>
+        <v>21667</v>
       </c>
     </row>
     <row r="9">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.606</v>
+        <v>5606</v>
       </c>
       <c r="C9" t="n">
         <v>284</v>
@@ -629,7 +629,7 @@
         <v>69</v>
       </c>
       <c r="H9" t="n">
-        <v>2.077</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="10">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.322</v>
+        <v>5322</v>
       </c>
       <c r="C10" t="n">
         <v>140</v>
@@ -657,7 +657,7 @@
         <v>48</v>
       </c>
       <c r="H10" t="n">
-        <v>1.377</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="11">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.363</v>
+        <v>2363</v>
       </c>
       <c r="C11" t="n">
         <v>46</v>
@@ -695,7 +695,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.398</v>
+        <v>6398</v>
       </c>
       <c r="C12" t="n">
         <v>259</v>
@@ -713,7 +713,7 @@
         <v>50</v>
       </c>
       <c r="H12" t="n">
-        <v>2.025</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="13">
@@ -723,7 +723,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.172</v>
+        <v>3172</v>
       </c>
       <c r="C13" t="n">
         <v>44</v>
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.609</v>
+        <v>1609</v>
       </c>
       <c r="C15" t="n">
         <v>36</v>
@@ -835,7 +835,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.435</v>
+        <v>1435</v>
       </c>
       <c r="C17" t="n">
         <v>12</v>
@@ -863,13 +863,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>271.982</v>
+        <v>271982</v>
       </c>
       <c r="C18" t="n">
-        <v>4.216</v>
+        <v>4216</v>
       </c>
       <c r="D18" t="n">
-        <v>3.396</v>
+        <v>3396</v>
       </c>
       <c r="E18" t="n">
         <v>402</v>
@@ -878,10 +878,10 @@
         <v>418</v>
       </c>
       <c r="G18" t="n">
-        <v>5.508999999999999</v>
+        <v>5509</v>
       </c>
       <c r="H18" t="n">
-        <v>34.26300000000001</v>
+        <v>34263</v>
       </c>
     </row>
   </sheetData>
